--- a/tests/testthat/fixtures/ex2/tables/irt_dich.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/irt_dich.xlsx
@@ -534,13 +534,13 @@
         <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E2" t="n">
-        <v>82.86</v>
+        <v>82.22</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.93</v>
+        <v>-1.9</v>
       </c>
       <c r="G2" t="n">
         <v>0.08</v>
@@ -549,16 +549,16 @@
         <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="K2" t="n">
         <v>0.03</v>
       </c>
       <c r="L2" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -572,31 +572,31 @@
         <v>1500</v>
       </c>
       <c r="D3" t="n">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E3" t="n">
-        <v>79.41</v>
+        <v>79.11</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.67</v>
+        <v>-1.66</v>
       </c>
       <c r="G3" t="n">
         <v>0.07</v>
       </c>
       <c r="H3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="J3" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="K3" t="n">
         <v>0.03</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +610,13 @@
         <v>1500</v>
       </c>
       <c r="D4" t="n">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="E4" t="n">
-        <v>71.37</v>
+        <v>70.66</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.14</v>
+        <v>-1.11</v>
       </c>
       <c r="G4" t="n">
         <v>0.06</v>
@@ -625,16 +625,16 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="J4" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="K4" t="n">
         <v>0.03</v>
       </c>
       <c r="L4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -648,13 +648,13 @@
         <v>1500</v>
       </c>
       <c r="D5" t="n">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E5" t="n">
-        <v>68.16</v>
+        <v>67.32</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.95</v>
+        <v>-0.91</v>
       </c>
       <c r="G5" t="n">
         <v>0.06</v>
@@ -663,7 +663,7 @@
         <v>1.03</v>
       </c>
       <c r="I5" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="J5" t="n">
         <v>0.31</v>
@@ -686,13 +686,13 @@
         <v>1500</v>
       </c>
       <c r="D6" t="n">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="E6" t="n">
-        <v>64.32</v>
+        <v>63.79</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.74</v>
+        <v>-0.71</v>
       </c>
       <c r="G6" t="n">
         <v>0.06</v>
@@ -701,16 +701,16 @@
         <v>0.97</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.3</v>
+        <v>-1.17</v>
       </c>
       <c r="J6" t="n">
         <v>0.39</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="7">
@@ -724,10 +724,10 @@
         <v>1500</v>
       </c>
       <c r="D7" t="n">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E7" t="n">
-        <v>53.18</v>
+        <v>53.26</v>
       </c>
       <c r="F7" t="n">
         <v>-0.16</v>
@@ -736,10 +736,10 @@
         <v>0.06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.69</v>
+        <v>-0.45</v>
       </c>
       <c r="J7" t="n">
         <v>0.39</v>
@@ -762,31 +762,31 @@
         <v>1500</v>
       </c>
       <c r="D8" t="n">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="E8" t="n">
-        <v>52.69</v>
+        <v>52.45</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="G8" t="n">
         <v>0.06</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08</v>
+        <v>-0.34</v>
       </c>
       <c r="J8" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="K8" t="n">
         <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
@@ -800,31 +800,31 @@
         <v>1500</v>
       </c>
       <c r="D9" t="n">
-        <v>1373</v>
+        <v>1349</v>
       </c>
       <c r="E9" t="n">
-        <v>45.96</v>
+        <v>45.74</v>
       </c>
       <c r="F9" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="G9" t="n">
         <v>0.06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.09</v>
+        <v>-0.5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="10">
@@ -838,31 +838,31 @@
         <v>1500</v>
       </c>
       <c r="D10" t="n">
-        <v>1331</v>
+        <v>1308</v>
       </c>
       <c r="E10" t="n">
-        <v>40.2</v>
+        <v>39.45</v>
       </c>
       <c r="F10" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="G10" t="n">
         <v>0.06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.39</v>
+        <v>-0.01</v>
       </c>
       <c r="J10" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L10" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="11">
@@ -876,31 +876,31 @@
         <v>1500</v>
       </c>
       <c r="D11" t="n">
-        <v>1275</v>
+        <v>1246</v>
       </c>
       <c r="E11" t="n">
-        <v>37.02</v>
+        <v>36.84</v>
       </c>
       <c r="F11" t="n">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.09</v>
+        <v>-0.72</v>
       </c>
       <c r="J11" t="n">
         <v>0.39</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="12">
@@ -914,22 +914,22 @@
         <v>1500</v>
       </c>
       <c r="D12" t="n">
-        <v>1200</v>
+        <v>1178</v>
       </c>
       <c r="E12" t="n">
-        <v>33.17</v>
+        <v>34.04</v>
       </c>
       <c r="F12" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G12" t="n">
         <v>0.07</v>
       </c>
       <c r="H12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I12" t="n">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
       <c r="J12" t="n">
         <v>0.34</v>
@@ -938,7 +938,7 @@
         <v>0.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="13">
@@ -952,31 +952,31 @@
         <v>1500</v>
       </c>
       <c r="D13" t="n">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="E13" t="n">
-        <v>24.37</v>
+        <v>22.3</v>
       </c>
       <c r="F13" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I13" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="J13" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L13" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="14">
@@ -990,31 +990,31 @@
         <v>1500</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="E14" t="n">
-        <v>20.99</v>
+        <v>21.52</v>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
         <v>0.12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="I14" t="n">
-        <v>0.15</v>
+        <v>-0.52</v>
       </c>
       <c r="J14" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="K14" t="n">
         <v>0.05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
@@ -1068,19 +1068,19 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>19004</v>
+        <v>18801</v>
       </c>
       <c r="E2" t="n">
-        <v>19032</v>
+        <v>18829</v>
       </c>
       <c r="F2" t="n">
-        <v>19106</v>
+        <v>18903</v>
       </c>
       <c r="G2" t="n">
-        <v>0.696</v>
+        <v>0.701</v>
       </c>
       <c r="H2" t="n">
-        <v>0.602</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="3">
@@ -1094,19 +1094,19 @@
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>18984</v>
+        <v>18784</v>
       </c>
       <c r="E3" t="n">
-        <v>19036</v>
+        <v>18836</v>
       </c>
       <c r="F3" t="n">
-        <v>19174</v>
+        <v>18974</v>
       </c>
       <c r="G3" t="n">
-        <v>0.699</v>
+        <v>0.703</v>
       </c>
       <c r="H3" t="n">
-        <v>0.598</v>
+        <v>0.604</v>
       </c>
     </row>
   </sheetData>
